--- a/digital-employee-business/src/main/resources/template/问答模板.xlsx
+++ b/digital-employee-business/src/main/resources/template/问答模板.xlsx
@@ -27,48 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>标准问</t>
   </si>
   <si>
     <t>回答</t>
-  </si>
-  <si>
-    <t>锐推61</t>
-  </si>
-  <si>
-    <t>给发热61</t>
-  </si>
-  <si>
-    <t>锐推62</t>
-  </si>
-  <si>
-    <t>给发热62</t>
-  </si>
-  <si>
-    <t>锐推63</t>
-  </si>
-  <si>
-    <t>给发热63</t>
-  </si>
-  <si>
-    <t>锐推64</t>
-  </si>
-  <si>
-    <t>给发热64</t>
-  </si>
-  <si>
-    <t>锐推65</t>
-  </si>
-  <si>
-    <t>给发热65</t>
-  </si>
-  <si>
-    <t>锐推66</t>
-  </si>
-  <si>
-    <t>给发热66</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1200,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1254,52 +1218,28 @@
       </c>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" ht="14.25" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
